--- a/随机属性设计器/技能.xlsx
+++ b/随机属性设计器/技能.xlsx
@@ -9364,7 +9364,7 @@
         <v>1015</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" ref="I66:I97" si="4">CONCATENATE(J66,K66,L66,M66,N66)</f>
+        <f t="shared" ref="I66:I75" si="4">CONCATENATE(J66,K66,L66,M66,N66)</f>
         <v xml:space="preserve">bonus2 bSkillAtk,65,{Value}; </v>
       </c>
       <c r="J66" t="s">
@@ -73594,8 +73594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I166" workbookViewId="0">
-      <selection activeCell="J195" sqref="J195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -73620,7 +73620,7 @@
         <v>10000</v>
       </c>
       <c r="E1">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -73652,7 +73652,7 @@
       </c>
       <c r="O1" t="str">
         <f t="shared" ref="O1:O25" si="1">CONCATENATE(A1,"|",B1,"|",C1,"|",D1,"|",E1,"|",F1,"|",G1,"||",H1,"|",I1)</f>
-        <v xml:space="preserve">狂击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||狂击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,5,{Value}; </v>
+        <v xml:space="preserve">狂击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||狂击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,5,{Value}; </v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -73669,7 +73669,7 @@
         <v>10000</v>
       </c>
       <c r="E2">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -73701,7 +73701,7 @@
       </c>
       <c r="O2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">怒爆|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||怒爆伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,7,{Value}; </v>
+        <v xml:space="preserve">怒爆|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||怒爆伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,7,{Value}; </v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -73718,7 +73718,7 @@
         <v>10000</v>
       </c>
       <c r="E3">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -73750,7 +73750,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">心灵爆破|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||心灵爆破伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,11,{Value}; </v>
+        <v xml:space="preserve">心灵爆破|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||心灵爆破伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,11,{Value}; </v>
       </c>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -73767,7 +73767,7 @@
         <v>10000</v>
       </c>
       <c r="E4">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>4</v>
@@ -73799,7 +73799,7 @@
       </c>
       <c r="O4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">圣灵召唤|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||圣灵召唤伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,13,{Value}; </v>
+        <v xml:space="preserve">圣灵召唤|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||圣灵召唤伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,13,{Value}; </v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -73816,7 +73816,7 @@
         <v>10000</v>
       </c>
       <c r="E5">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -73848,7 +73848,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">冰箭术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||冰箭术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,14,{Value}; </v>
+        <v xml:space="preserve">冰箭术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||冰箭术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,14,{Value}; </v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -73865,7 +73865,7 @@
         <v>10000</v>
       </c>
       <c r="E6">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
@@ -73897,7 +73897,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">冰冻术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||冰冻术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,15,{Value}; </v>
+        <v xml:space="preserve">冰冻术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||冰冻术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,15,{Value}; </v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -73914,7 +73914,7 @@
         <v>10000</v>
       </c>
       <c r="E7">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
@@ -73946,7 +73946,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">火球术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||火球术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,17,{Value}; </v>
+        <v xml:space="preserve">火球术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||火球术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,17,{Value}; </v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -73963,7 +73963,7 @@
         <v>10000</v>
       </c>
       <c r="E8">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
@@ -73995,7 +73995,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">火焰之壁|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||火焰之壁伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,18,{Value}; </v>
+        <v xml:space="preserve">火焰之壁|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||火焰之壁伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,18,{Value}; </v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -74012,7 +74012,7 @@
         <v>10000</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
@@ -74044,7 +74044,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">火箭术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||火箭术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,19,{Value}; </v>
+        <v xml:space="preserve">火箭术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||火箭术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,19,{Value}; </v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -74061,7 +74061,7 @@
         <v>10000</v>
       </c>
       <c r="E10">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -74093,7 +74093,7 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">雷击术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||雷击术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,20,{Value}; </v>
+        <v xml:space="preserve">雷击术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||雷击术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,20,{Value}; </v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -74110,7 +74110,7 @@
         <v>10000</v>
       </c>
       <c r="E11">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
@@ -74142,7 +74142,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">雷爆术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||雷爆术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,21,{Value}; </v>
+        <v xml:space="preserve">雷爆术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||雷爆术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,21,{Value}; </v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -74159,7 +74159,7 @@
         <v>10000</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -74191,7 +74191,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">治愈术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||治愈术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,28,{Value}; </v>
+        <v xml:space="preserve">治愈术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||治愈术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,28,{Value}; </v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -74208,7 +74208,7 @@
         <v>10000</v>
       </c>
       <c r="E13">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
@@ -74240,7 +74240,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">加速术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||加速术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,29,{Value}; </v>
+        <v xml:space="preserve">加速术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||加速术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,29,{Value}; </v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
@@ -74257,7 +74257,7 @@
         <v>10000</v>
       </c>
       <c r="E14">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
@@ -74289,7 +74289,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">缓速术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||缓速术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,30,{Value}; </v>
+        <v xml:space="preserve">缓速术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||缓速术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,30,{Value}; </v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
@@ -74306,7 +74306,7 @@
         <v>10000</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
         <v>4</v>
@@ -74338,7 +74338,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">金钱攻击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||金钱攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,42,{Value}; </v>
+        <v xml:space="preserve">金钱攻击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||金钱攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,42,{Value}; </v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
@@ -74355,7 +74355,7 @@
         <v>10000</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
@@ -74387,7 +74387,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">二连矢|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||二连矢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,46,{Value}; </v>
+        <v xml:space="preserve">二连矢|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||二连矢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,46,{Value}; </v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
@@ -74404,7 +74404,7 @@
         <v>10000</v>
       </c>
       <c r="E17">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
@@ -74436,7 +74436,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">箭雨|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||箭雨伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,47,{Value}; </v>
+        <v xml:space="preserve">箭雨|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||箭雨伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,47,{Value}; </v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
@@ -74453,7 +74453,7 @@
         <v>10000</v>
       </c>
       <c r="E18">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
@@ -74485,7 +74485,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">二刀连击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||二刀连击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,48,{Value}; </v>
+        <v xml:space="preserve">二刀连击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||二刀连击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,48,{Value}; </v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
@@ -74502,7 +74502,7 @@
         <v>10000</v>
       </c>
       <c r="E19">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
@@ -74534,7 +74534,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">连刺攻击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||连刺攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,56,{Value}; </v>
+        <v xml:space="preserve">连刺攻击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||连刺攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,56,{Value}; </v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
@@ -74551,7 +74551,7 @@
         <v>10000</v>
       </c>
       <c r="E20">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
@@ -74583,7 +74583,7 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">骑乘攻击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||骑乘攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,57,{Value}; </v>
+        <v xml:space="preserve">骑乘攻击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||骑乘攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,57,{Value}; </v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
@@ -74600,7 +74600,7 @@
         <v>10000</v>
       </c>
       <c r="E21">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
@@ -74632,7 +74632,7 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">长矛刺击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||长矛刺击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,58,{Value}; </v>
+        <v xml:space="preserve">长矛刺击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||长矛刺击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,58,{Value}; </v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
@@ -74649,7 +74649,7 @@
         <v>10000</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -74681,7 +74681,7 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">投掷长矛攻击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||投掷长矛攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,59,{Value}; </v>
+        <v xml:space="preserve">投掷长矛攻击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||投掷长矛攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,59,{Value}; </v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -74698,7 +74698,7 @@
         <v>10000</v>
       </c>
       <c r="E23">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
@@ -74730,7 +74730,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">双手剑攻击速度增加|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||双手剑攻击速度增加伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,60,{Value}; </v>
+        <v xml:space="preserve">双手剑攻击速度增加|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||双手剑攻击速度增加伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,60,{Value}; </v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -74747,7 +74747,7 @@
         <v>10000</v>
       </c>
       <c r="E24">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -74779,7 +74779,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">反击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||反击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,61,{Value}; </v>
+        <v xml:space="preserve">反击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||反击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,61,{Value}; </v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -74796,7 +74796,7 @@
         <v>10000</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
@@ -74828,7 +74828,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">怪物互击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||怪物互击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,62,{Value}; </v>
+        <v xml:space="preserve">怪物互击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||怪物互击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,62,{Value}; </v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -74845,7 +74845,7 @@
         <v>10000</v>
       </c>
       <c r="E26">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
@@ -74877,7 +74877,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" ref="O26:O40" si="3">CONCATENATE(A26,"|",B26,"|",C26,"|",D26,"|",E26,"|",F26,"|",G26,"||",H26,"|",I26)</f>
-        <v xml:space="preserve">十字驱魔攻击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||十字驱魔攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,79,{Value}; </v>
+        <v xml:space="preserve">十字驱魔攻击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||十字驱魔攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,79,{Value}; </v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
@@ -74894,7 +74894,7 @@
         <v>10000</v>
       </c>
       <c r="E27">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
         <v>4</v>
@@ -74926,7 +74926,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">火柱攻击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||火柱攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,80,{Value}; </v>
+        <v xml:space="preserve">火柱攻击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||火柱攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,80,{Value}; </v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
@@ -74943,7 +74943,7 @@
         <v>10000</v>
       </c>
       <c r="E28">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
         <v>4</v>
@@ -74975,7 +74975,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">火之猎杀|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||火之猎杀伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,81,{Value}; </v>
+        <v xml:space="preserve">火之猎杀|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||火之猎杀伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,81,{Value}; </v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
@@ -74992,7 +74992,7 @@
         <v>10000</v>
       </c>
       <c r="E29">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
@@ -75024,7 +75024,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">陨石术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||陨石术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,83,{Value}; </v>
+        <v xml:space="preserve">陨石术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||陨石术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,83,{Value}; </v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
@@ -75041,7 +75041,7 @@
         <v>10000</v>
       </c>
       <c r="E30">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
@@ -75073,7 +75073,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">雷鸣术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||雷鸣术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,84,{Value}; </v>
+        <v xml:space="preserve">雷鸣术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||雷鸣术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,84,{Value}; </v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -75090,7 +75090,7 @@
         <v>10000</v>
       </c>
       <c r="E31">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
         <v>4</v>
@@ -75122,7 +75122,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">怒雷强击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||怒雷强击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,85,{Value}; </v>
+        <v xml:space="preserve">怒雷强击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||怒雷强击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,85,{Value}; </v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -75139,7 +75139,7 @@
         <v>10000</v>
       </c>
       <c r="E32">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
@@ -75171,7 +75171,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">水球术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||水球术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,86,{Value}; </v>
+        <v xml:space="preserve">水球术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||水球术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,86,{Value}; </v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -75188,7 +75188,7 @@
         <v>10000</v>
       </c>
       <c r="E33">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
         <v>4</v>
@@ -75220,7 +75220,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">霜冻之术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||霜冻之术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,88,{Value}; </v>
+        <v xml:space="preserve">霜冻之术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||霜冻之术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,88,{Value}; </v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -75237,7 +75237,7 @@
         <v>10000</v>
       </c>
       <c r="E34">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>
@@ -75269,7 +75269,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">暴风雪|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||暴风雪伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,89,{Value}; </v>
+        <v xml:space="preserve">暴风雪|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||暴风雪伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,89,{Value}; </v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -75286,7 +75286,7 @@
         <v>10000</v>
       </c>
       <c r="E35">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
         <v>4</v>
@@ -75318,7 +75318,7 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">地震术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||地震术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,90,{Value}; </v>
+        <v xml:space="preserve">地震术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||地震术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,90,{Value}; </v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
@@ -75335,7 +75335,7 @@
         <v>10000</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
@@ -75367,7 +75367,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">崩裂术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||崩裂术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,91,{Value}; </v>
+        <v xml:space="preserve">崩裂术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||崩裂术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,91,{Value}; </v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
@@ -75384,7 +75384,7 @@
         <v>10000</v>
       </c>
       <c r="E37">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F37" t="s">
         <v>4</v>
@@ -75416,7 +75416,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">闪电冲击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||闪电冲击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,129,{Value}; </v>
+        <v xml:space="preserve">闪电冲击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||闪电冲击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,129,{Value}; </v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -75433,7 +75433,7 @@
         <v>10000</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F38" t="s">
         <v>4</v>
@@ -75465,7 +75465,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">爆破陷阱|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||爆破陷阱伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,131,{Value}; </v>
+        <v xml:space="preserve">爆破陷阱|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||爆破陷阱伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,131,{Value}; </v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -75482,7 +75482,7 @@
         <v>10000</v>
       </c>
       <c r="E39">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
@@ -75514,7 +75514,7 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">音速投掷|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||音速投掷伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,136,{Value}; </v>
+        <v xml:space="preserve">音速投掷|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||音速投掷伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,136,{Value}; </v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
@@ -75531,7 +75531,7 @@
         <v>10000</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
@@ -75563,7 +75563,7 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">无影之牙|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||无影之牙伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,137,{Value}; </v>
+        <v xml:space="preserve">无影之牙|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||无影之牙伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,137,{Value}; </v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
@@ -75580,7 +75580,7 @@
         <v>10000</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
@@ -75612,7 +75612,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" ref="O41:O54" si="5">CONCATENATE(A41,"|",B41,"|",C41,"|",D41,"|",E41,"|",F41,"|",G41,"||",H41,"|",I41)</f>
-        <v xml:space="preserve">冲锋箭|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||冲锋箭伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,148,{Value}; </v>
+        <v xml:space="preserve">冲锋箭|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||冲锋箭伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,148,{Value}; </v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
@@ -75629,7 +75629,7 @@
         <v>10000</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
@@ -75661,7 +75661,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">喷砂|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||喷砂伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,149,{Value}; </v>
+        <v xml:space="preserve">喷砂|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||喷砂伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,149,{Value}; </v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
@@ -75678,7 +75678,7 @@
         <v>10000</v>
       </c>
       <c r="E43">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F43" t="s">
         <v>4</v>
@@ -75710,7 +75710,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">投掷石头|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||投掷石头伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,152,{Value}; </v>
+        <v xml:space="preserve">投掷石头|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||投掷石头伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,152,{Value}; </v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
@@ -75727,7 +75727,7 @@
         <v>10000</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
@@ -75759,7 +75759,7 @@
       </c>
       <c r="O44" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">手推车攻击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||手推车攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,153,{Value}; </v>
+        <v xml:space="preserve">手推车攻击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||手推车攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,153,{Value}; </v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
@@ -75776,7 +75776,7 @@
         <v>10000</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F45" t="s">
         <v>4</v>
@@ -75808,7 +75808,7 @@
       </c>
       <c r="O45" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">神圣之光|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||神圣之光伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,156,{Value}; </v>
+        <v xml:space="preserve">神圣之光|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||神圣之光伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,156,{Value}; </v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
@@ -75825,7 +75825,7 @@
         <v>10000</v>
       </c>
       <c r="E46">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
@@ -75857,7 +75857,7 @@
       </c>
       <c r="O46" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">背刺|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||背刺伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,212,{Value}; </v>
+        <v xml:space="preserve">背刺|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||背刺伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,212,{Value}; </v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
@@ -75874,7 +75874,7 @@
         <v>10000</v>
       </c>
       <c r="E47">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F47" t="s">
         <v>4</v>
@@ -75906,7 +75906,7 @@
       </c>
       <c r="O47" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">潜击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||潜击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,214,{Value}; </v>
+        <v xml:space="preserve">潜击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||潜击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,214,{Value}; </v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
@@ -75923,7 +75923,7 @@
         <v>10000</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F48" t="s">
         <v>4</v>
@@ -75955,7 +75955,7 @@
       </c>
       <c r="O48" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">火烟瓶投掷|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||火烟瓶投掷伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,229,{Value}; </v>
+        <v xml:space="preserve">火烟瓶投掷|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||火烟瓶投掷伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,229,{Value}; </v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
@@ -75972,7 +75972,7 @@
         <v>10000</v>
       </c>
       <c r="E49">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F49" t="s">
         <v>4</v>
@@ -76004,7 +76004,7 @@
       </c>
       <c r="O49" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">强酸攻击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||强酸攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,230,{Value}; </v>
+        <v xml:space="preserve">强酸攻击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||强酸攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,230,{Value}; </v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
@@ -76021,7 +76021,7 @@
         <v>10000</v>
       </c>
       <c r="E50">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F50" t="s">
         <v>4</v>
@@ -76053,7 +76053,7 @@
       </c>
       <c r="O50" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">药水投掷|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||药水投掷伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,231,{Value}; </v>
+        <v xml:space="preserve">药水投掷|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||药水投掷伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,231,{Value}; </v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
@@ -76070,7 +76070,7 @@
         <v>10000</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F51" t="s">
         <v>4</v>
@@ -76102,7 +76102,7 @@
       </c>
       <c r="O51" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">盾击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||盾击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,250,{Value}; </v>
+        <v xml:space="preserve">盾击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||盾击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,250,{Value}; </v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
@@ -76119,7 +76119,7 @@
         <v>10000</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F52" t="s">
         <v>4</v>
@@ -76151,7 +76151,7 @@
       </c>
       <c r="O52" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">回旋盾击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||回旋盾击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,251,{Value}; </v>
+        <v xml:space="preserve">回旋盾击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||回旋盾击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,251,{Value}; </v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
@@ -76168,7 +76168,7 @@
         <v>10000</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F53" t="s">
         <v>4</v>
@@ -76200,7 +76200,7 @@
       </c>
       <c r="O53" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">圣十字攻击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||圣十字攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,253,{Value}; </v>
+        <v xml:space="preserve">圣十字攻击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||圣十字攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,253,{Value}; </v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
@@ -76217,7 +76217,7 @@
         <v>10000</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F54" t="s">
         <v>4</v>
@@ -76249,7 +76249,7 @@
       </c>
       <c r="O54" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">圣十字审判|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||圣十字审判伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,254,{Value}; </v>
+        <v xml:space="preserve">圣十字审判|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||圣十字审判伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,254,{Value}; </v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
@@ -76266,7 +76266,7 @@
         <v>10000</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F55" t="s">
         <v>4</v>
@@ -76298,7 +76298,7 @@
       </c>
       <c r="O55" t="str">
         <f t="shared" ref="O55:O61" si="7">CONCATENATE(A55,"|",B55,"|",C55,"|",D55,"|",E55,"|",F55,"|",G55,"||",H55,"|",I55)</f>
-        <v xml:space="preserve">六合拳|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||六合拳伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,263,{Value}; </v>
+        <v xml:space="preserve">六合拳|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||六合拳伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,263,{Value}; </v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
@@ -76315,7 +76315,7 @@
         <v>10000</v>
       </c>
       <c r="E56">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F56" t="s">
         <v>4</v>
@@ -76347,7 +76347,7 @@
       </c>
       <c r="O56" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">浸透劲|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||浸透劲伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,266,{Value}; </v>
+        <v xml:space="preserve">浸透劲|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||浸透劲伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,266,{Value}; </v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
@@ -76364,7 +76364,7 @@
         <v>10000</v>
       </c>
       <c r="E57">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F57" t="s">
         <v>4</v>
@@ -76396,7 +76396,7 @@
       </c>
       <c r="O57" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">弹指神通|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||弹指神通伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,267,{Value}; </v>
+        <v xml:space="preserve">弹指神通|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||弹指神通伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,267,{Value}; </v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
@@ -76413,7 +76413,7 @@
         <v>10000</v>
       </c>
       <c r="E58">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F58" t="s">
         <v>4</v>
@@ -76445,7 +76445,7 @@
       </c>
       <c r="O58" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">阿修罗霸凰拳|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||阿修罗霸凰拳伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,271,{Value}; </v>
+        <v xml:space="preserve">阿修罗霸凰拳|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||阿修罗霸凰拳伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,271,{Value}; </v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
@@ -76462,7 +76462,7 @@
         <v>10000</v>
       </c>
       <c r="E59">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F59" t="s">
         <v>4</v>
@@ -76494,7 +76494,7 @@
       </c>
       <c r="O59" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">连环全身掌|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||连环全身掌伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,272,{Value}; </v>
+        <v xml:space="preserve">连环全身掌|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||连环全身掌伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,272,{Value}; </v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
@@ -76511,7 +76511,7 @@
         <v>10000</v>
       </c>
       <c r="E60">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F60" t="s">
         <v>4</v>
@@ -76543,7 +76543,7 @@
       </c>
       <c r="O60" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">猛龙夸强|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||猛龙夸强伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,273,{Value}; </v>
+        <v xml:space="preserve">猛龙夸强|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||猛龙夸强伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,273,{Value}; </v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
@@ -76560,7 +76560,7 @@
         <v>10000</v>
       </c>
       <c r="E61">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F61" t="s">
         <v>4</v>
@@ -76592,7 +76592,7 @@
       </c>
       <c r="O61" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">缠箭投掷|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||缠箭投掷伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,324,{Value}; </v>
+        <v xml:space="preserve">缠箭投掷|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||缠箭投掷伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,324,{Value}; </v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
@@ -76609,7 +76609,7 @@
         <v>10000</v>
       </c>
       <c r="E62">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F62" t="s">
         <v>4</v>
@@ -76641,7 +76641,7 @@
       </c>
       <c r="O62" t="str">
         <f t="shared" ref="O62:O80" si="9">CONCATENATE(A62,"|",B62,"|",C62,"|",D62,"|",E62,"|",F62,"|",G62,"||",H62,"|",I62)</f>
-        <v xml:space="preserve">投掷风灵之斧|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||投掷风灵之斧伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,337,{Value}; </v>
+        <v xml:space="preserve">投掷风灵之斧|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||投掷风灵之斧伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,337,{Value}; </v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
@@ -76658,7 +76658,7 @@
         <v>10000</v>
       </c>
       <c r="E63">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F63" t="s">
         <v>4</v>
@@ -76690,7 +76690,7 @@
       </c>
       <c r="O63" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">灵气剑|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||灵气剑伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,355,{Value}; </v>
+        <v xml:space="preserve">灵气剑|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||灵气剑伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,355,{Value}; </v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
@@ -76707,7 +76707,7 @@
         <v>10000</v>
       </c>
       <c r="E64">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F64" t="s">
         <v>4</v>
@@ -76739,7 +76739,7 @@
       </c>
       <c r="O64" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">双剑挌挡|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||双剑挌挡伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,356,{Value}; </v>
+        <v xml:space="preserve">双剑挌挡|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||双剑挌挡伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,356,{Value}; </v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
@@ -76756,7 +76756,7 @@
         <v>10000</v>
       </c>
       <c r="E65">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F65" t="s">
         <v>4</v>
@@ -76788,7 +76788,7 @@
       </c>
       <c r="O65" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">魔击术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||魔击术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,365,{Value}; </v>
+        <v xml:space="preserve">魔击术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||魔击术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,365,{Value}; </v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
@@ -76805,7 +76805,7 @@
         <v>10000</v>
       </c>
       <c r="E66">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F66" t="s">
         <v>4</v>
@@ -76837,7 +76837,7 @@
       </c>
       <c r="O66" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">神之威压|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||神之威压伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,367,{Value}; </v>
+        <v xml:space="preserve">神之威压|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||神之威压伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,367,{Value}; </v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
@@ -76854,7 +76854,7 @@
         <v>10000</v>
       </c>
       <c r="E67">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F67" t="s">
         <v>4</v>
@@ -76886,7 +76886,7 @@
       </c>
       <c r="O67" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">舍命攻击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||舍命攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,368,{Value}; </v>
+        <v xml:space="preserve">舍命攻击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||舍命攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,368,{Value}; </v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
@@ -76903,7 +76903,7 @@
         <v>10000</v>
       </c>
       <c r="E68">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F68" t="s">
         <v>4</v>
@@ -76935,7 +76935,7 @@
       </c>
       <c r="O68" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">猛虎硬爬山|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||猛虎硬爬山伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,370,{Value}; </v>
+        <v xml:space="preserve">猛虎硬爬山|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||猛虎硬爬山伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,370,{Value}; </v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
@@ -76952,7 +76952,7 @@
         <v>10000</v>
       </c>
       <c r="E69">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F69" t="s">
         <v>4</v>
@@ -76984,7 +76984,7 @@
       </c>
       <c r="O69" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">伏虎拳|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||伏虎拳伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,371,{Value}; </v>
+        <v xml:space="preserve">伏虎拳|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||伏虎拳伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,371,{Value}; </v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
@@ -77001,7 +77001,7 @@
         <v>10000</v>
       </c>
       <c r="E70">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F70" t="s">
         <v>4</v>
@@ -77033,7 +77033,7 @@
       </c>
       <c r="O70" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">气绝崩击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||气绝崩击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,372,{Value}; </v>
+        <v xml:space="preserve">气绝崩击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||气绝崩击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,372,{Value}; </v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
@@ -77050,7 +77050,7 @@
         <v>10000</v>
       </c>
       <c r="E71">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F71" t="s">
         <v>4</v>
@@ -77082,7 +77082,7 @@
       </c>
       <c r="O71" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">心灵震波|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||心灵震波伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,379,{Value}; </v>
+        <v xml:space="preserve">心灵震波|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||心灵震波伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,379,{Value}; </v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
@@ -77099,7 +77099,7 @@
         <v>10000</v>
       </c>
       <c r="E72">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F72" t="s">
         <v>4</v>
@@ -77131,7 +77131,7 @@
       </c>
       <c r="O72" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">猎鹰突击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||猎鹰突击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,381,{Value}; </v>
+        <v xml:space="preserve">猎鹰突击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||猎鹰突击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,381,{Value}; </v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
@@ -77148,7 +77148,7 @@
         <v>10000</v>
       </c>
       <c r="E73">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F73" t="s">
         <v>4</v>
@@ -77180,7 +77180,7 @@
       </c>
       <c r="O73" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">锐利射击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||锐利射击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,382,{Value}; </v>
+        <v xml:space="preserve">锐利射击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||锐利射击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,382,{Value}; </v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
@@ -77197,7 +77197,7 @@
         <v>10000</v>
       </c>
       <c r="E74">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F74" t="s">
         <v>4</v>
@@ -77229,7 +77229,7 @@
       </c>
       <c r="O74" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">奥义箭乱舞|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||奥义箭乱舞伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,394,{Value}; </v>
+        <v xml:space="preserve">奥义箭乱舞|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||奥义箭乱舞伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,394,{Value}; </v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
@@ -77246,7 +77246,7 @@
         <v>10000</v>
       </c>
       <c r="E75">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F75" t="s">
         <v>4</v>
@@ -77278,7 +77278,7 @@
       </c>
       <c r="O75" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">螺旋击刺|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||螺旋击刺伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,397,{Value}; </v>
+        <v xml:space="preserve">螺旋击刺|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||螺旋击刺伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,397,{Value}; </v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
@@ -77295,7 +77295,7 @@
         <v>10000</v>
       </c>
       <c r="E76">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F76" t="s">
         <v>4</v>
@@ -77327,7 +77327,7 @@
       </c>
       <c r="O76" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">伤害增压|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||伤害增压伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,398,{Value}; </v>
+        <v xml:space="preserve">伤害增压|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||伤害增压伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,398,{Value}; </v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
@@ -77344,7 +77344,7 @@
         <v>10000</v>
       </c>
       <c r="E77">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F77" t="s">
         <v>4</v>
@@ -77376,7 +77376,7 @@
       </c>
       <c r="O77" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">巧打|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||巧打伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,399,{Value}; </v>
+        <v xml:space="preserve">巧打|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||巧打伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,399,{Value}; </v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
@@ -77393,7 +77393,7 @@
         <v>10000</v>
       </c>
       <c r="E78">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F78" t="s">
         <v>4</v>
@@ -77425,7 +77425,7 @@
       </c>
       <c r="O78" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">念力连击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||念力连击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,400,{Value}; </v>
+        <v xml:space="preserve">念力连击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||念力连击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,400,{Value}; </v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
@@ -77442,7 +77442,7 @@
         <v>10000</v>
       </c>
       <c r="E79">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F79" t="s">
         <v>4</v>
@@ -77474,7 +77474,7 @@
       </c>
       <c r="O79" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">黑暗瞬间|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||黑暗瞬间伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,406,{Value}; </v>
+        <v xml:space="preserve">黑暗瞬间|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||黑暗瞬间伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,406,{Value}; </v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
@@ -77491,7 +77491,7 @@
         <v>10000</v>
       </c>
       <c r="E80">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F80" t="s">
         <v>4</v>
@@ -77523,7 +77523,7 @@
       </c>
       <c r="O80" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">回旋踢|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||回旋踢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,413,{Value}; </v>
+        <v xml:space="preserve">回旋踢|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||回旋踢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,413,{Value}; </v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
@@ -77540,7 +77540,7 @@
         <v>10000</v>
       </c>
       <c r="E81">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F81" t="s">
         <v>4</v>
@@ -77572,7 +77572,7 @@
       </c>
       <c r="O81" t="str">
         <f t="shared" ref="O81:O85" si="11">CONCATENATE(A81,"|",B81,"|",C81,"|",D81,"|",E81,"|",F81,"|",G81,"||",H81,"|",I81)</f>
-        <v xml:space="preserve">砸踢|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||砸踢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,415,{Value}; </v>
+        <v xml:space="preserve">砸踢|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||砸踢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,415,{Value}; </v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
@@ -77589,7 +77589,7 @@
         <v>10000</v>
       </c>
       <c r="E82">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F82" t="s">
         <v>4</v>
@@ -77621,7 +77621,7 @@
       </c>
       <c r="O82" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">转身踢|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||转身踢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,417,{Value}; </v>
+        <v xml:space="preserve">转身踢|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||转身踢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,417,{Value}; </v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
@@ -77638,7 +77638,7 @@
         <v>10000</v>
       </c>
       <c r="E83">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" t="s">
         <v>4</v>
@@ -77670,7 +77670,7 @@
       </c>
       <c r="O83" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">还击踢|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||还击踢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,419,{Value}; </v>
+        <v xml:space="preserve">还击踢|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||还击踢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,419,{Value}; </v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
@@ -77687,7 +77687,7 @@
         <v>10000</v>
       </c>
       <c r="E84">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F84" t="s">
         <v>4</v>
@@ -77719,7 +77719,7 @@
       </c>
       <c r="O84" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">飞脚踢|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||飞脚踢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,421,{Value}; </v>
+        <v xml:space="preserve">飞脚踢|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||飞脚踢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,421,{Value}; </v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
@@ -77736,7 +77736,7 @@
         <v>10000</v>
       </c>
       <c r="E85">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" t="s">
         <v>4</v>
@@ -77768,7 +77768,7 @@
       </c>
       <c r="O85" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">连续盾击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||连续盾击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,480,{Value}; </v>
+        <v xml:space="preserve">连续盾击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||连续盾击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,480,{Value}; </v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
@@ -77785,7 +77785,7 @@
         <v>10000</v>
       </c>
       <c r="E86">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" t="s">
         <v>4</v>
@@ -77817,7 +77817,7 @@
       </c>
       <c r="O86" t="str">
         <f t="shared" ref="O86:O108" si="13">CONCATENATE(A86,"|",B86,"|",C86,"|",D86,"|",E86,"|",F86,"|",G86,"||",H86,"|",I86)</f>
-        <v xml:space="preserve">手推车终结技|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||手推车终结技伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,485,{Value}; </v>
+        <v xml:space="preserve">手推车终结技|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||手推车终结技伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,485,{Value}; </v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
@@ -77834,7 +77834,7 @@
         <v>10000</v>
       </c>
       <c r="E87">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" t="s">
         <v>4</v>
@@ -77866,7 +77866,7 @@
       </c>
       <c r="O87" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">强酸火烟瓶投掷|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||强酸火烟瓶投掷伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,490,{Value}; </v>
+        <v xml:space="preserve">强酸火烟瓶投掷|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||强酸火烟瓶投掷伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,490,{Value}; </v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
@@ -77883,7 +77883,7 @@
         <v>10000</v>
       </c>
       <c r="E88">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" t="s">
         <v>4</v>
@@ -77915,7 +77915,7 @@
       </c>
       <c r="O88" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">三次连击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||三次连击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,502,{Value}; </v>
+        <v xml:space="preserve">三次连击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||三次连击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,502,{Value}; </v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
@@ -77932,7 +77932,7 @@
         <v>10000</v>
       </c>
       <c r="E89">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F89" t="s">
         <v>4</v>
@@ -77964,7 +77964,7 @@
       </c>
       <c r="O89" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">疯狂消灭|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||疯狂消灭伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,504,{Value}; </v>
+        <v xml:space="preserve">疯狂消灭|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||疯狂消灭伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,504,{Value}; </v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
@@ -77981,7 +77981,7 @@
         <v>10000</v>
       </c>
       <c r="E90">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F90" t="s">
         <v>4</v>
@@ -78013,7 +78013,7 @@
       </c>
       <c r="O90" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">魔术子弹|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||魔术子弹伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,507,{Value}; </v>
+        <v xml:space="preserve">魔术子弹|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||魔术子弹伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,507,{Value}; </v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
@@ -78030,7 +78030,7 @@
         <v>10000</v>
       </c>
       <c r="E91">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F91" t="s">
         <v>4</v>
@@ -78062,7 +78062,7 @@
       </c>
       <c r="O91" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">刺穿射击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||刺穿射击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,514,{Value}; </v>
+        <v xml:space="preserve">刺穿射击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||刺穿射击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,514,{Value}; </v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
@@ -78079,7 +78079,7 @@
         <v>10000</v>
       </c>
       <c r="E92">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F92" t="s">
         <v>4</v>
@@ -78111,7 +78111,7 @@
       </c>
       <c r="O92" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">迅速淋弹|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||迅速淋弹伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,515,{Value}; </v>
+        <v xml:space="preserve">迅速淋弹|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||迅速淋弹伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,515,{Value}; </v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
@@ -78128,7 +78128,7 @@
         <v>10000</v>
       </c>
       <c r="E93">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F93" t="s">
         <v>4</v>
@@ -78160,7 +78160,7 @@
       </c>
       <c r="O93" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">亡命之徒|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||亡命之徒伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,516,{Value}; </v>
+        <v xml:space="preserve">亡命之徒|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||亡命之徒伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,516,{Value}; </v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
@@ -78177,7 +78177,7 @@
         <v>10000</v>
       </c>
       <c r="E94">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F94" t="s">
         <v>4</v>
@@ -78209,7 +78209,7 @@
       </c>
       <c r="O94" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">飞镖扔|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||飞镖扔伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,523,{Value}; </v>
+        <v xml:space="preserve">飞镖扔|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||飞镖扔伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,523,{Value}; </v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
@@ -78226,7 +78226,7 @@
         <v>10000</v>
       </c>
       <c r="E95">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F95" t="s">
         <v>4</v>
@@ -78258,7 +78258,7 @@
       </c>
       <c r="O95" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">短刀扔|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||短刀扔伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,524,{Value}; </v>
+        <v xml:space="preserve">短刀扔|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||短刀扔伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,524,{Value}; </v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
@@ -78275,7 +78275,7 @@
         <v>10000</v>
       </c>
       <c r="E96">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F96" t="s">
         <v>4</v>
@@ -78307,7 +78307,7 @@
       </c>
       <c r="O96" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">风魔飞镖扔|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||风魔飞镖扔伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,525,{Value}; </v>
+        <v xml:space="preserve">风魔飞镖扔|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||风魔飞镖扔伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,525,{Value}; </v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
@@ -78324,7 +78324,7 @@
         <v>10000</v>
       </c>
       <c r="E97">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F97" t="s">
         <v>4</v>
@@ -78356,7 +78356,7 @@
       </c>
       <c r="O97" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">钱扔|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||钱扔伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,526,{Value}; </v>
+        <v xml:space="preserve">钱扔|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||钱扔伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,526,{Value}; </v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.15">
@@ -78373,7 +78373,7 @@
         <v>10000</v>
       </c>
       <c r="E98">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F98" t="s">
         <v>4</v>
@@ -78405,7 +78405,7 @@
       </c>
       <c r="O98" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">雾割|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||雾割伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,528,{Value}; </v>
+        <v xml:space="preserve">雾割|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||雾割伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,528,{Value}; </v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.15">
@@ -78422,7 +78422,7 @@
         <v>10000</v>
       </c>
       <c r="E99">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F99" t="s">
         <v>4</v>
@@ -78454,7 +78454,7 @@
       </c>
       <c r="O99" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">影子割|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||影子割伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,530,{Value}; </v>
+        <v xml:space="preserve">影子割|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||影子割伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,530,{Value}; </v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.15">
@@ -78471,7 +78471,7 @@
         <v>10000</v>
       </c>
       <c r="E100">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F100" t="s">
         <v>4</v>
@@ -78503,7 +78503,7 @@
       </c>
       <c r="O100" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">红炎华|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||红炎华伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,534,{Value}; </v>
+        <v xml:space="preserve">红炎华|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||红炎华伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,534,{Value}; </v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.15">
@@ -78520,7 +78520,7 @@
         <v>10000</v>
       </c>
       <c r="E101">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F101" t="s">
         <v>4</v>
@@ -78552,7 +78552,7 @@
       </c>
       <c r="O101" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">火炎阵|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||火炎阵伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,535,{Value}; </v>
+        <v xml:space="preserve">火炎阵|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||火炎阵伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,535,{Value}; </v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.15">
@@ -78569,7 +78569,7 @@
         <v>10000</v>
       </c>
       <c r="E102">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F102" t="s">
         <v>4</v>
@@ -78601,7 +78601,7 @@
       </c>
       <c r="O102" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">爆炎龙|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||爆炎龙伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,536,{Value}; </v>
+        <v xml:space="preserve">爆炎龙|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||爆炎龙伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,536,{Value}; </v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.15">
@@ -78618,7 +78618,7 @@
         <v>10000</v>
       </c>
       <c r="E103">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F103" t="s">
         <v>4</v>
@@ -78650,7 +78650,7 @@
       </c>
       <c r="O103" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">冰闪枪|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||冰闪枪伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,537,{Value}; </v>
+        <v xml:space="preserve">冰闪枪|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||冰闪枪伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,537,{Value}; </v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.15">
@@ -78667,7 +78667,7 @@
         <v>10000</v>
       </c>
       <c r="E104">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F104" t="s">
         <v>4</v>
@@ -78699,7 +78699,7 @@
       </c>
       <c r="O104" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">冰晶落|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||冰晶落伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,539,{Value}; </v>
+        <v xml:space="preserve">冰晶落|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||冰晶落伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,539,{Value}; </v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.15">
@@ -78716,7 +78716,7 @@
         <v>10000</v>
       </c>
       <c r="E105">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F105" t="s">
         <v>4</v>
@@ -78748,7 +78748,7 @@
       </c>
       <c r="O105" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">风刃|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||风刃伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,540,{Value}; </v>
+        <v xml:space="preserve">风刃|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||风刃伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,540,{Value}; </v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.15">
@@ -78765,7 +78765,7 @@
         <v>10000</v>
       </c>
       <c r="E106">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F106" t="s">
         <v>4</v>
@@ -78797,7 +78797,7 @@
       </c>
       <c r="O106" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">雷击碎|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||雷击碎伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,541,{Value}; </v>
+        <v xml:space="preserve">雷击碎|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||雷击碎伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,541,{Value}; </v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.15">
@@ -78814,7 +78814,7 @@
         <v>10000</v>
       </c>
       <c r="E107">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F107" t="s">
         <v>4</v>
@@ -78846,7 +78846,7 @@
       </c>
       <c r="O107" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">朔风劈开|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||朔风劈开伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,542,{Value}; </v>
+        <v xml:space="preserve">朔风劈开|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||朔风劈开伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,542,{Value}; </v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.15">
@@ -78863,7 +78863,7 @@
         <v>10000</v>
       </c>
       <c r="E108">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F108" t="s">
         <v>4</v>
@@ -78895,7 +78895,7 @@
       </c>
       <c r="O108" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">一闪|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||一闪伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,544,{Value}; </v>
+        <v xml:space="preserve">一闪|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||一闪伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,544,{Value}; </v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.15">
@@ -78912,7 +78912,7 @@
         <v>10000</v>
       </c>
       <c r="E109">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F109" t="s">
         <v>4</v>
@@ -78944,7 +78944,7 @@
       </c>
       <c r="O109" t="str">
         <f t="shared" ref="O109:O115" si="15">CONCATENATE(A109,"|",B109,"|",C109,"|",D109,"|",E109,"|",F109,"|",G109,"||",H109,"|",I109)</f>
-        <v xml:space="preserve">冲锋攻击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||冲锋攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,1001,{Value}; </v>
+        <v xml:space="preserve">冲锋攻击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||冲锋攻击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,1001,{Value}; </v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.15">
@@ -78961,7 +78961,7 @@
         <v>10000</v>
       </c>
       <c r="E110">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F110" t="s">
         <v>4</v>
@@ -78993,7 +78993,7 @@
       </c>
       <c r="O110" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">火狩冲击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||火狩冲击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,1006,{Value}; </v>
+        <v xml:space="preserve">火狩冲击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||火狩冲击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,1006,{Value}; </v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.15">
@@ -79010,7 +79010,7 @@
         <v>10000</v>
       </c>
       <c r="E111">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F111" t="s">
         <v>4</v>
@@ -79042,7 +79042,7 @@
       </c>
       <c r="O111" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">幻箭|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||幻箭伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,1009,{Value}; </v>
+        <v xml:space="preserve">幻箭|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||幻箭伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,1009,{Value}; </v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.15">
@@ -79059,7 +79059,7 @@
         <v>10000</v>
       </c>
       <c r="E112">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F112" t="s">
         <v>4</v>
@@ -79091,7 +79091,7 @@
       </c>
       <c r="O112" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">急速戳刺|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||急速戳刺伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2004,{Value}; </v>
+        <v xml:space="preserve">急速戳刺|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||急速戳刺伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2004,{Value}; </v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.15">
@@ -79108,7 +79108,7 @@
         <v>10000</v>
       </c>
       <c r="E113">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F113" t="s">
         <v>4</v>
@@ -79140,7 +79140,7 @@
       </c>
       <c r="O113" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">裂风之刃|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||裂风之刃伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2005,{Value}; </v>
+        <v xml:space="preserve">裂风之刃|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||裂风之刃伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2005,{Value}; </v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.15">
@@ -79157,7 +79157,7 @@
         <v>10000</v>
       </c>
       <c r="E114">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F114" t="s">
         <v>4</v>
@@ -79189,7 +79189,7 @@
       </c>
       <c r="O114" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">爆裂之刃|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||爆裂之刃伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2006,{Value}; </v>
+        <v xml:space="preserve">爆裂之刃|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||爆裂之刃伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2006,{Value}; </v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.15">
@@ -79206,7 +79206,7 @@
         <v>10000</v>
       </c>
       <c r="E115">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F115" t="s">
         <v>4</v>
@@ -79238,7 +79238,7 @@
       </c>
       <c r="O115" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">龙之吐息|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||龙之吐息伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2008,{Value}; </v>
+        <v xml:space="preserve">龙之吐息|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||龙之吐息伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2008,{Value}; </v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.15">
@@ -79255,7 +79255,7 @@
         <v>10000</v>
       </c>
       <c r="E116">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F116" t="s">
         <v>4</v>
@@ -79287,7 +79287,7 @@
       </c>
       <c r="O116" t="str">
         <f t="shared" ref="O116:O138" si="17">CONCATENATE(A116,"|",B116,"|",C116,"|",D116,"|",E116,"|",F116,"|",G116,"||",H116,"|",I116)</f>
-        <v xml:space="preserve">风暴|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||风暴伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2017,{Value}; </v>
+        <v xml:space="preserve">风暴|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||风暴伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2017,{Value}; </v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.15">
@@ -79304,7 +79304,7 @@
         <v>10000</v>
       </c>
       <c r="E117">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F117" t="s">
         <v>4</v>
@@ -79336,7 +79336,7 @@
       </c>
       <c r="O117" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">幻影刺击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||幻影刺击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2020,{Value}; </v>
+        <v xml:space="preserve">幻影刺击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||幻影刺击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2020,{Value}; </v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.15">
@@ -79353,7 +79353,7 @@
         <v>10000</v>
       </c>
       <c r="E118">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F118" t="s">
         <v>4</v>
@@ -79385,7 +79385,7 @@
       </c>
       <c r="O118" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">灵魂爆发|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||灵魂爆发伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2202,{Value}; </v>
+        <v xml:space="preserve">灵魂爆发|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||灵魂爆发伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2202,{Value}; </v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.15">
@@ -79402,7 +79402,7 @@
         <v>10000</v>
       </c>
       <c r="E119">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F119" t="s">
         <v>4</v>
@@ -79434,7 +79434,7 @@
       </c>
       <c r="O119" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">冰雾|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||冰雾伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2203,{Value}; </v>
+        <v xml:space="preserve">冰雾|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||冰雾伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2203,{Value}; </v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.15">
@@ -79451,7 +79451,7 @@
         <v>10000</v>
       </c>
       <c r="E120">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F120" t="s">
         <v>4</v>
@@ -79483,7 +79483,7 @@
       </c>
       <c r="O120" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">霜冻爆破|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||霜冻爆破伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2204,{Value}; </v>
+        <v xml:space="preserve">霜冻爆破|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||霜冻爆破伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2204,{Value}; </v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.15">
@@ -79500,7 +79500,7 @@
         <v>10000</v>
       </c>
       <c r="E121">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F121" t="s">
         <v>4</v>
@@ -79532,7 +79532,7 @@
       </c>
       <c r="O121" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">魔力霜冻|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||魔力霜冻伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2209,{Value}; </v>
+        <v xml:space="preserve">魔力霜冻|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||魔力霜冻伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2209,{Value}; </v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.15">
@@ -79549,7 +79549,7 @@
         <v>10000</v>
       </c>
       <c r="E122">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F122" t="s">
         <v>4</v>
@@ -79581,7 +79581,7 @@
       </c>
       <c r="O122" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">生命吸收|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||生命吸收伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2210,{Value}; </v>
+        <v xml:space="preserve">生命吸收|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||生命吸收伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2210,{Value}; </v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.15">
@@ -79598,7 +79598,7 @@
         <v>10000</v>
       </c>
       <c r="E123">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F123" t="s">
         <v>4</v>
@@ -79630,7 +79630,7 @@
       </c>
       <c r="O123" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">深红陨石|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||深红陨石伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2211,{Value}; </v>
+        <v xml:space="preserve">深红陨石|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||深红陨石伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2211,{Value}; </v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.15">
@@ -79647,7 +79647,7 @@
         <v>10000</v>
       </c>
       <c r="E124">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F124" t="s">
         <v>4</v>
@@ -79679,7 +79679,7 @@
       </c>
       <c r="O124" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">毁灭烈焰|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||毁灭烈焰伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2212,{Value}; </v>
+        <v xml:space="preserve">毁灭烈焰|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||毁灭烈焰伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2212,{Value}; </v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.15">
@@ -79696,7 +79696,7 @@
         <v>10000</v>
       </c>
       <c r="E125">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F125" t="s">
         <v>4</v>
@@ -79728,7 +79728,7 @@
       </c>
       <c r="O125" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">破坏彗星|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||破坏彗星伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2213,{Value}; </v>
+        <v xml:space="preserve">破坏彗星|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||破坏彗星伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2213,{Value}; </v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.15">
@@ -79745,7 +79745,7 @@
         <v>10000</v>
       </c>
       <c r="E126">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F126" t="s">
         <v>4</v>
@@ -79777,7 +79777,7 @@
       </c>
       <c r="O126" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">连锁闪电|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||连锁闪电伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2214,{Value}; </v>
+        <v xml:space="preserve">连锁闪电|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||连锁闪电伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2214,{Value}; </v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.15">
@@ -79794,7 +79794,7 @@
         <v>10000</v>
       </c>
       <c r="E127">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F127" t="s">
         <v>4</v>
@@ -79826,7 +79826,7 @@
       </c>
       <c r="O127" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">大地扭曲|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||大地扭曲伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2216,{Value}; </v>
+        <v xml:space="preserve">大地扭曲|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||大地扭曲伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2216,{Value}; </v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.15">
@@ -79843,7 +79843,7 @@
         <v>10000</v>
       </c>
       <c r="E128">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F128" t="s">
         <v>4</v>
@@ -79875,7 +79875,7 @@
       </c>
       <c r="O128" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">元素漩涡|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||元素漩涡伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2217,{Value}; </v>
+        <v xml:space="preserve">元素漩涡|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||元素漩涡伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2217,{Value}; </v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.15">
@@ -79892,7 +79892,7 @@
         <v>10000</v>
       </c>
       <c r="E129">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F129" t="s">
         <v>4</v>
@@ -79924,7 +79924,7 @@
       </c>
       <c r="O129" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">召唤火球|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||召唤火球伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2222,{Value}; </v>
+        <v xml:space="preserve">召唤火球|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||召唤火球伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2222,{Value}; </v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.15">
@@ -79941,7 +79941,7 @@
         <v>10000</v>
       </c>
       <c r="E130">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F130" t="s">
         <v>4</v>
@@ -79973,7 +79973,7 @@
       </c>
       <c r="O130" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">召唤闪电球|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||召唤闪电球伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2223,{Value}; </v>
+        <v xml:space="preserve">召唤闪电球|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||召唤闪电球伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2223,{Value}; </v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.15">
@@ -79990,7 +79990,7 @@
         <v>10000</v>
       </c>
       <c r="E131">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F131" t="s">
         <v>4</v>
@@ -80022,7 +80022,7 @@
       </c>
       <c r="O131" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">召唤水球|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||召唤水球伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2224,{Value}; </v>
+        <v xml:space="preserve">召唤水球|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||召唤水球伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2224,{Value}; </v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.15">
@@ -80039,7 +80039,7 @@
         <v>10000</v>
       </c>
       <c r="E132">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F132" t="s">
         <v>4</v>
@@ -80071,7 +80071,7 @@
       </c>
       <c r="O132" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">召唤石块|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||召唤石块伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2229,{Value}; </v>
+        <v xml:space="preserve">召唤石块|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||召唤石块伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2229,{Value}; </v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.15">
@@ -80088,7 +80088,7 @@
         <v>10000</v>
       </c>
       <c r="E133">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F133" t="s">
         <v>4</v>
@@ -80120,7 +80120,7 @@
       </c>
       <c r="O133" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">十字斩|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||十字斩伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2022,{Value}; </v>
+        <v xml:space="preserve">十字斩|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||十字斩伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2022,{Value}; </v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.15">
@@ -80137,7 +80137,7 @@
         <v>10000</v>
       </c>
       <c r="E134">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F134" t="s">
         <v>4</v>
@@ -80169,7 +80169,7 @@
       </c>
       <c r="O134" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">反击斩|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||反击斩伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2029,{Value}; </v>
+        <v xml:space="preserve">反击斩|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||反击斩伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2029,{Value}; </v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.15">
@@ -80186,7 +80186,7 @@
         <v>10000</v>
       </c>
       <c r="E135">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F135" t="s">
         <v>4</v>
@@ -80218,7 +80218,7 @@
       </c>
       <c r="O135" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">毒雾|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||毒雾伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2032,{Value}; </v>
+        <v xml:space="preserve">毒雾|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||毒雾伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2032,{Value}; </v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.15">
@@ -80235,7 +80235,7 @@
         <v>10000</v>
       </c>
       <c r="E136">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F136" t="s">
         <v>4</v>
@@ -80267,7 +80267,7 @@
       </c>
       <c r="O136" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">回旋利刃|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||回旋利刃伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2036,{Value}; </v>
+        <v xml:space="preserve">回旋利刃|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||回旋利刃伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2036,{Value}; </v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.15">
@@ -80284,7 +80284,7 @@
         <v>10000</v>
       </c>
       <c r="E137">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F137" t="s">
         <v>4</v>
@@ -80316,7 +80316,7 @@
       </c>
       <c r="O137" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">回旋十字斩|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||回旋十字斩伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2037,{Value}; </v>
+        <v xml:space="preserve">回旋十字斩|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||回旋十字斩伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2037,{Value}; </v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.15">
@@ -80333,7 +80333,7 @@
         <v>10000</v>
       </c>
       <c r="E138">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F138" t="s">
         <v>4</v>
@@ -80365,7 +80365,7 @@
       </c>
       <c r="O138" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">审判|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||审判伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2038,{Value}; </v>
+        <v xml:space="preserve">审判|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||审判伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2038,{Value}; </v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.15">
@@ -80382,7 +80382,7 @@
         <v>10000</v>
       </c>
       <c r="E139">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F139" t="s">
         <v>4</v>
@@ -80414,7 +80414,7 @@
       </c>
       <c r="O139" t="str">
         <f t="shared" ref="O139:O159" si="19">CONCATENATE(A139,"|",B139,"|",C139,"|",D139,"|",E139,"|",F139,"|",G139,"||",H139,"|",I139)</f>
-        <v xml:space="preserve">双重圣光|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||双重圣光伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2054,{Value}; </v>
+        <v xml:space="preserve">双重圣光|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||双重圣光伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2054,{Value}; </v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.15">
@@ -80431,7 +80431,7 @@
         <v>10000</v>
       </c>
       <c r="E140">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F140" t="s">
         <v>4</v>
@@ -80463,7 +80463,7 @@
       </c>
       <c r="O140" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">箭矢风暴|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||箭矢风暴伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2233,{Value}; </v>
+        <v xml:space="preserve">箭矢风暴|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||箭矢风暴伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2233,{Value}; </v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.15">
@@ -80480,7 +80480,7 @@
         <v>10000</v>
       </c>
       <c r="E141">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F141" t="s">
         <v>4</v>
@@ -80512,7 +80512,7 @@
       </c>
       <c r="O141" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">屠戮射击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||屠戮射击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2234,{Value}; </v>
+        <v xml:space="preserve">屠戮射击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||屠戮射击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2234,{Value}; </v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.15">
@@ -80529,7 +80529,7 @@
         <v>10000</v>
       </c>
       <c r="E142">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F142" t="s">
         <v>4</v>
@@ -80561,7 +80561,7 @@
       </c>
       <c r="O142" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">瞄准射击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||瞄准射击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2236,{Value}; </v>
+        <v xml:space="preserve">瞄准射击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||瞄准射击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2236,{Value}; </v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.15">
@@ -80578,7 +80578,7 @@
         <v>10000</v>
       </c>
       <c r="E143">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F143" t="s">
         <v>4</v>
@@ -80610,7 +80610,7 @@
       </c>
       <c r="O143" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">引爆|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||引爆伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2237,{Value}; </v>
+        <v xml:space="preserve">引爆|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||引爆伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2237,{Value}; </v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.15">
@@ -80627,7 +80627,7 @@
         <v>10000</v>
       </c>
       <c r="E144">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F144" t="s">
         <v>4</v>
@@ -80659,7 +80659,7 @@
       </c>
       <c r="O144" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">电击陷阱|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||电击陷阱伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2238,{Value}; </v>
+        <v xml:space="preserve">电击陷阱|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||电击陷阱伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2238,{Value}; </v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.15">
@@ -80676,7 +80676,7 @@
         <v>10000</v>
       </c>
       <c r="E145">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F145" t="s">
         <v>4</v>
@@ -80708,7 +80708,7 @@
       </c>
       <c r="O145" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">集束炸弹|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||集束炸弹伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2239,{Value}; </v>
+        <v xml:space="preserve">集束炸弹|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||集束炸弹伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2239,{Value}; </v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.15">
@@ -80725,7 +80725,7 @@
         <v>10000</v>
       </c>
       <c r="E146">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F146" t="s">
         <v>4</v>
@@ -80757,7 +80757,7 @@
       </c>
       <c r="O146" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">狼突击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||狼突击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2243,{Value}; </v>
+        <v xml:space="preserve">狼突击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||狼突击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2243,{Value}; </v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.15">
@@ -80774,7 +80774,7 @@
         <v>10000</v>
       </c>
       <c r="E147">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F147" t="s">
         <v>4</v>
@@ -80806,7 +80806,7 @@
       </c>
       <c r="O147" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">狼撕咬|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||狼撕咬伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2244,{Value}; </v>
+        <v xml:space="preserve">狼撕咬|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||狼撕咬伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2244,{Value}; </v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.15">
@@ -80823,7 +80823,7 @@
         <v>10000</v>
       </c>
       <c r="E148">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F148" t="s">
         <v>4</v>
@@ -80855,7 +80855,7 @@
       </c>
       <c r="O148" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">狼牙|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||狼牙伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2245,{Value}; </v>
+        <v xml:space="preserve">狼牙|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||狼牙伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2245,{Value}; </v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.15">
@@ -80872,7 +80872,7 @@
         <v>10000</v>
       </c>
       <c r="E149">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F149" t="s">
         <v>4</v>
@@ -80904,7 +80904,7 @@
       </c>
       <c r="O149" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">喷射飞拳|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||喷射飞拳伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2256,{Value}; </v>
+        <v xml:space="preserve">喷射飞拳|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||喷射飞拳伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2256,{Value}; </v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.15">
@@ -80921,7 +80921,7 @@
         <v>10000</v>
       </c>
       <c r="E150">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F150" t="s">
         <v>4</v>
@@ -80953,7 +80953,7 @@
       </c>
       <c r="O150" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">冲击锥|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||冲击锥伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2257,{Value}; </v>
+        <v xml:space="preserve">冲击锥|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||冲击锥伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2257,{Value}; </v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.15">
@@ -80970,7 +80970,7 @@
         <v>10000</v>
       </c>
       <c r="E151">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F151" t="s">
         <v>4</v>
@@ -81002,7 +81002,7 @@
       </c>
       <c r="O151" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">火神炮|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||火神炮伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2258,{Value}; </v>
+        <v xml:space="preserve">火神炮|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||火神炮伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2258,{Value}; </v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.15">
@@ -81019,7 +81019,7 @@
         <v>10000</v>
       </c>
       <c r="E152">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F152" t="s">
         <v>4</v>
@@ -81051,7 +81051,7 @@
       </c>
       <c r="O152" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">火焰喷射器|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||火焰喷射器伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2259,{Value}; </v>
+        <v xml:space="preserve">火焰喷射器|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||火焰喷射器伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2259,{Value}; </v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.15">
@@ -81068,7 +81068,7 @@
         <v>10000</v>
       </c>
       <c r="E153">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F153" t="s">
         <v>4</v>
@@ -81100,7 +81100,7 @@
       </c>
       <c r="O153" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">急速冰冻|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||急速冰冻伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2260,{Value}; </v>
+        <v xml:space="preserve">急速冰冻|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||急速冰冻伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2260,{Value}; </v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.15">
@@ -81117,7 +81117,7 @@
         <v>10000</v>
       </c>
       <c r="E154">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F154" t="s">
         <v>4</v>
@@ -81149,7 +81149,7 @@
       </c>
       <c r="O154" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">加农炮|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||加农炮伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2261,{Value}; </v>
+        <v xml:space="preserve">加农炮|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||加农炮伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2261,{Value}; </v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.15">
@@ -81166,7 +81166,7 @@
         <v>10000</v>
       </c>
       <c r="E155">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F155" t="s">
         <v>4</v>
@@ -81198,7 +81198,7 @@
       </c>
       <c r="O155" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">自爆|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||自爆伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2267,{Value}; </v>
+        <v xml:space="preserve">自爆|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||自爆伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2267,{Value}; </v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.15">
@@ -81215,7 +81215,7 @@
         <v>10000</v>
       </c>
       <c r="E156">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F156" t="s">
         <v>4</v>
@@ -81247,7 +81247,7 @@
       </c>
       <c r="O156" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">回旋斧|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||回旋斧伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2278,{Value}; </v>
+        <v xml:space="preserve">回旋斧|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||回旋斧伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2278,{Value}; </v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.15">
@@ -81264,7 +81264,7 @@
         <v>10000</v>
       </c>
       <c r="E157">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F157" t="s">
         <v>4</v>
@@ -81296,7 +81296,7 @@
       </c>
       <c r="O157" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">强力回旋|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||强力回旋伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2279,{Value}; </v>
+        <v xml:space="preserve">强力回旋|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||强力回旋伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2279,{Value}; </v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.15">
@@ -81313,7 +81313,7 @@
         <v>10000</v>
       </c>
       <c r="E158">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
@@ -81345,7 +81345,7 @@
       </c>
       <c r="O158" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">利刃风暴|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||利刃风暴伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2280,{Value}; </v>
+        <v xml:space="preserve">利刃风暴|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||利刃风暴伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2280,{Value}; </v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.15">
@@ -81362,7 +81362,7 @@
         <v>10000</v>
       </c>
       <c r="E159">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F159" t="s">
         <v>4</v>
@@ -81394,7 +81394,7 @@
       </c>
       <c r="O159" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">三连矢|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||三连矢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2288,{Value}; </v>
+        <v xml:space="preserve">三连矢|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||三连矢伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2288,{Value}; </v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.15">
@@ -81411,7 +81411,7 @@
         <v>10000</v>
       </c>
       <c r="E160">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F160" t="s">
         <v>4</v>
@@ -81443,7 +81443,7 @@
       </c>
       <c r="O160" t="str">
         <f t="shared" ref="O160:O175" si="21">CONCATENATE(A160,"|",B160,"|",C160,"|",D160,"|",E160,"|",F160,"|",G160,"||",H160,"|",I160)</f>
-        <v xml:space="preserve">重炮枪击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||重炮枪击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2307,{Value}; </v>
+        <v xml:space="preserve">重炮枪击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||重炮枪击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2307,{Value}; </v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.15">
@@ -81460,7 +81460,7 @@
         <v>10000</v>
       </c>
       <c r="E161">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F161" t="s">
         <v>4</v>
@@ -81492,7 +81492,7 @@
       </c>
       <c r="O161" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">驱逐点刺|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||驱逐点刺伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2308,{Value}; </v>
+        <v xml:space="preserve">驱逐点刺|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||驱逐点刺伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2308,{Value}; </v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.15">
@@ -81509,7 +81509,7 @@
         <v>10000</v>
       </c>
       <c r="E162">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F162" t="s">
         <v>4</v>
@@ -81541,7 +81541,7 @@
       </c>
       <c r="O162" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">精准穿刺|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||精准穿刺伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2312,{Value}; </v>
+        <v xml:space="preserve">精准穿刺|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||精准穿刺伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2312,{Value}; </v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.15">
@@ -81558,7 +81558,7 @@
         <v>10000</v>
       </c>
       <c r="E163">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F163" t="s">
         <v>4</v>
@@ -81590,7 +81590,7 @@
       </c>
       <c r="O163" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">枪阵血十字|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||枪阵血十字伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2317,{Value}; </v>
+        <v xml:space="preserve">枪阵血十字|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||枪阵血十字伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2317,{Value}; </v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.15">
@@ -81607,7 +81607,7 @@
         <v>10000</v>
       </c>
       <c r="E164">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F164" t="s">
         <v>4</v>
@@ -81639,7 +81639,7 @@
       </c>
       <c r="O164" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">枪阵圆月|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||枪阵圆月伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2320,{Value}; </v>
+        <v xml:space="preserve">枪阵圆月|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||枪阵圆月伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2320,{Value}; </v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.15">
@@ -81656,7 +81656,7 @@
         <v>10000</v>
       </c>
       <c r="E165">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F165" t="s">
         <v>4</v>
@@ -81688,7 +81688,7 @@
       </c>
       <c r="O165" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">大地猛击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||大地猛击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2323,{Value}; </v>
+        <v xml:space="preserve">大地猛击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||大地猛击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2323,{Value}; </v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.15">
@@ -81705,7 +81705,7 @@
         <v>10000</v>
       </c>
       <c r="E166">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F166" t="s">
         <v>4</v>
@@ -81737,7 +81737,7 @@
       </c>
       <c r="O166" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">双龙摆尾|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||双龙摆尾伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2326,{Value}; </v>
+        <v xml:space="preserve">双龙摆尾|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||双龙摆尾伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2326,{Value}; </v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.15">
@@ -81754,7 +81754,7 @@
         <v>10000</v>
       </c>
       <c r="E167">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F167" t="s">
         <v>4</v>
@@ -81786,7 +81786,7 @@
       </c>
       <c r="O167" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">天罗地网|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||天罗地网伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2327,{Value}; </v>
+        <v xml:space="preserve">天罗地网|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||天罗地网伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2327,{Value}; </v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.15">
@@ -81803,7 +81803,7 @@
         <v>10000</v>
       </c>
       <c r="E168">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F168" t="s">
         <v>4</v>
@@ -81835,7 +81835,7 @@
       </c>
       <c r="O168" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">地震波|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||地震波伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2328,{Value}; </v>
+        <v xml:space="preserve">地震波|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||地震波伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2328,{Value}; </v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.15">
@@ -81852,7 +81852,7 @@
         <v>10000</v>
       </c>
       <c r="E169">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F169" t="s">
         <v>4</v>
@@ -81884,7 +81884,7 @@
       </c>
       <c r="O169" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">大锤崩坠|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||大锤崩坠伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2329,{Value}; </v>
+        <v xml:space="preserve">大锤崩坠|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||大锤崩坠伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2329,{Value}; </v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.15">
@@ -81901,7 +81901,7 @@
         <v>10000</v>
       </c>
       <c r="E170">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F170" t="s">
         <v>4</v>
@@ -81933,7 +81933,7 @@
       </c>
       <c r="O170" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">虎炮|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||虎炮伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2330,{Value}; </v>
+        <v xml:space="preserve">虎炮|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||虎炮伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2330,{Value}; </v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.15">
@@ -81950,7 +81950,7 @@
         <v>10000</v>
       </c>
       <c r="E171">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F171" t="s">
         <v>4</v>
@@ -81982,7 +81982,7 @@
       </c>
       <c r="O171" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">崩拳|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||崩拳伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2333,{Value}; </v>
+        <v xml:space="preserve">崩拳|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||崩拳伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2333,{Value}; </v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.15">
@@ -81999,7 +81999,7 @@
         <v>10000</v>
       </c>
       <c r="E172">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F172" t="s">
         <v>4</v>
@@ -82031,7 +82031,7 @@
       </c>
       <c r="O172" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">修罗强击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||修罗强击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2336,{Value}; </v>
+        <v xml:space="preserve">修罗强击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||修罗强击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2336,{Value}; </v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.15">
@@ -82048,7 +82048,7 @@
         <v>10000</v>
       </c>
       <c r="E173">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F173" t="s">
         <v>4</v>
@@ -82080,7 +82080,7 @@
       </c>
       <c r="O173" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">旋风腿|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||旋风腿伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2337,{Value}; </v>
+        <v xml:space="preserve">旋风腿|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||旋风腿伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2337,{Value}; </v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.15">
@@ -82097,7 +82097,7 @@
         <v>10000</v>
       </c>
       <c r="E174">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F174" t="s">
         <v>4</v>
@@ -82129,7 +82129,7 @@
       </c>
       <c r="O174" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">罗刹破凰拳|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||罗刹破凰拳伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2343,{Value}; </v>
+        <v xml:space="preserve">罗刹破凰拳|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||罗刹破凰拳伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2343,{Value}; </v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.15">
@@ -82146,7 +82146,7 @@
         <v>10000</v>
       </c>
       <c r="E175">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F175" t="s">
         <v>4</v>
@@ -82178,7 +82178,7 @@
       </c>
       <c r="O175" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">狮子吼|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||狮子吼伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2517,{Value}; </v>
+        <v xml:space="preserve">狮子吼|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||狮子吼伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2517,{Value}; </v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.15">
@@ -82195,7 +82195,7 @@
         <v>10000</v>
       </c>
       <c r="E176">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F176" t="s">
         <v>4</v>
@@ -82227,7 +82227,7 @@
       </c>
       <c r="O176" t="str">
         <f t="shared" ref="O176:O186" si="23">CONCATENATE(A176,"|",B176,"|",C176,"|",D176,"|",E176,"|",F176,"|",G176,"||",H176,"|",I176)</f>
-        <v xml:space="preserve">狂风暴雨|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||狂风暴雨伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2418,{Value}; </v>
+        <v xml:space="preserve">狂风暴雨|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||狂风暴雨伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2418,{Value}; </v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.15">
@@ -82244,7 +82244,7 @@
         <v>10000</v>
       </c>
       <c r="E177">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F177" t="s">
         <v>4</v>
@@ -82276,7 +82276,7 @@
       </c>
       <c r="O177" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">岩枪|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||岩枪伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2446,{Value}; </v>
+        <v xml:space="preserve">岩枪|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||岩枪伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2446,{Value}; </v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.15">
@@ -82293,7 +82293,7 @@
         <v>10000</v>
       </c>
       <c r="E178">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F178" t="s">
         <v>4</v>
@@ -82325,7 +82325,7 @@
       </c>
       <c r="O178" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">钻石星尘|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||钻石星尘伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2447,{Value}; </v>
+        <v xml:space="preserve">钻石星尘|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||钻石星尘伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2447,{Value}; </v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.15">
@@ -82342,7 +82342,7 @@
         <v>10000</v>
       </c>
       <c r="E179">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F179" t="s">
         <v>4</v>
@@ -82374,7 +82374,7 @@
       </c>
       <c r="O179" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">剧毒爆发|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||剧毒爆发伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2448,{Value}; </v>
+        <v xml:space="preserve">剧毒爆发|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||剧毒爆发伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2448,{Value}; </v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.15">
@@ -82391,7 +82391,7 @@
         <v>10000</v>
       </c>
       <c r="E180">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F180" t="s">
         <v>4</v>
@@ -82423,7 +82423,7 @@
       </c>
       <c r="O180" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">精神冲击|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||精神冲击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2449,{Value}; </v>
+        <v xml:space="preserve">精神冲击|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||精神冲击伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2449,{Value}; </v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.15">
@@ -82440,7 +82440,7 @@
         <v>10000</v>
       </c>
       <c r="E181">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F181" t="s">
         <v>4</v>
@@ -82472,7 +82472,7 @@
       </c>
       <c r="O181" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">毒云术|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||毒云术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2450,{Value}; </v>
+        <v xml:space="preserve">毒云术|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||毒云术伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2450,{Value}; </v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.15">
@@ -82489,7 +82489,7 @@
         <v>10000</v>
       </c>
       <c r="E182">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F182" t="s">
         <v>4</v>
@@ -82521,7 +82521,7 @@
       </c>
       <c r="O182" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">闪电之枪|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||闪电之枪伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2454,{Value}; </v>
+        <v xml:space="preserve">闪电之枪|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||闪电之枪伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2454,{Value}; </v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.15">
@@ -82538,7 +82538,7 @@
         <v>10000</v>
       </c>
       <c r="E183">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F183" t="s">
         <v>4</v>
@@ -82570,7 +82570,7 @@
       </c>
       <c r="O183" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">手推车龙卷风|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||手推车龙卷风伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2476,{Value}; </v>
+        <v xml:space="preserve">手推车龙卷风|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||手推车龙卷风伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2476,{Value}; </v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.15">
@@ -82587,7 +82587,7 @@
         <v>10000</v>
       </c>
       <c r="E184">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F184" t="s">
         <v>4</v>
@@ -82619,7 +82619,7 @@
       </c>
       <c r="O184" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">手推车加农炮|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||手推车加农炮伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2477,{Value}; </v>
+        <v xml:space="preserve">手推车加农炮|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||手推车加农炮伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2477,{Value}; </v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.15">
@@ -82636,7 +82636,7 @@
         <v>10000</v>
       </c>
       <c r="E185">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F185" t="s">
         <v>4</v>
@@ -82668,7 +82668,7 @@
       </c>
       <c r="O185" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">疯狂火焰|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||疯狂火焰伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2485,{Value}; </v>
+        <v xml:space="preserve">疯狂火焰|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||疯狂火焰伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2485,{Value}; </v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.15">
@@ -82685,7 +82685,7 @@
         <v>10000</v>
       </c>
       <c r="E186">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F186" t="s">
         <v>4</v>
@@ -82717,7 +82717,7 @@
       </c>
       <c r="O186" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">火焰爆炸|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||火焰爆炸伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2486,{Value}; </v>
+        <v xml:space="preserve">火焰爆炸|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||火焰爆炸伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2486,{Value}; </v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.15">
@@ -82734,7 +82734,7 @@
         <v>10000</v>
       </c>
       <c r="E187">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F187" t="s">
         <v>4</v>
@@ -82766,7 +82766,7 @@
       </c>
       <c r="O187" t="str">
         <f t="shared" ref="O187:O193" si="25">CONCATENATE(A187,"|",B187,"|",C187,"|",D187,"|",E187,"|",F187,"|",G187,"||",H187,"|",I187)</f>
-        <v xml:space="preserve">火焰暴雨|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||火焰暴雨伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2567,{Value}; </v>
+        <v xml:space="preserve">火焰暴雨|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||火焰暴雨伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2567,{Value}; </v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.15">
@@ -82783,7 +82783,7 @@
         <v>10000</v>
       </c>
       <c r="E188">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F188" t="s">
         <v>4</v>
@@ -82815,7 +82815,7 @@
       </c>
       <c r="O188" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">天神愤怒|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||天神愤怒伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2571,{Value}; </v>
+        <v xml:space="preserve">天神愤怒|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||天神愤怒伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,2571,{Value}; </v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.15">
@@ -82832,7 +82832,7 @@
         <v>10000</v>
       </c>
       <c r="E189">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F189" t="s">
         <v>4</v>
@@ -82864,7 +82864,7 @@
       </c>
       <c r="O189" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">十文字斩|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||十文字斩伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,3004,{Value}; </v>
+        <v xml:space="preserve">十文字斩|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||十文字斩伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,3004,{Value}; </v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.15">
@@ -82881,7 +82881,7 @@
         <v>10000</v>
       </c>
       <c r="E190">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F190" t="s">
         <v>4</v>
@@ -82913,7 +82913,7 @@
       </c>
       <c r="O190" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">魂切断|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||魂切断伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,3005,{Value}; </v>
+        <v xml:space="preserve">魂切断|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||魂切断伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,3005,{Value}; </v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.15">
@@ -82930,7 +82930,7 @@
         <v>10000</v>
       </c>
       <c r="E191">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F191" t="s">
         <v>4</v>
@@ -82962,7 +82962,7 @@
       </c>
       <c r="O191" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">乾坤一掷|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||乾坤一掷伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,3008,{Value}; </v>
+        <v xml:space="preserve">乾坤一掷|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||乾坤一掷伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,3008,{Value}; </v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.15">
@@ -82979,7 +82979,7 @@
         <v>10000</v>
       </c>
       <c r="E192">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F192" t="s">
         <v>4</v>
@@ -83011,7 +83011,7 @@
       </c>
       <c r="O192" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">风魔飞镖乱华|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||风魔飞镖乱华伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,3009,{Value}; </v>
+        <v xml:space="preserve">风魔飞镖乱华|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||风魔飞镖乱华伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,3009,{Value}; </v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.15">
@@ -83028,7 +83028,7 @@
         <v>10000</v>
       </c>
       <c r="E193">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F193" t="s">
         <v>4</v>
@@ -83060,7 +83060,7 @@
       </c>
       <c r="O193" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">漆黑之爪|8|25|10000|68|侩狼焊林_踌|侩狼焊林_全||漆黑之爪伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,5001,{Value}; </v>
+        <v xml:space="preserve">漆黑之爪|8|25|10000|64|侩狼焊林_踌|侩狼焊林_全||漆黑之爪伤害 + {Value}/{MaxValue}|bonus2 bSkillAtk,5001,{Value}; </v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.15">
@@ -83077,7 +83077,7 @@
         <v>10000</v>
       </c>
       <c r="E194">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F194" t="s">
         <v>4</v>
@@ -83100,7 +83100,7 @@
       </c>
       <c r="O194" t="str">
         <f t="shared" ref="O194" si="27">CONCATENATE(A194,"|",B194,"|",C194,"|",D194,"|",E194,"|",F194,"|",G194,"||",H194,"|",I194)</f>
-        <v xml:space="preserve">连击|1|5|10000|68|侩狼焊林_踌|侩狼焊林_全||{Value}/{MaxValue} %几率 在3秒内触发二次攻击|autobonus "{bonus bDoubleAddRate,100;}",{Value}*10,3000,BF_WEAPON,"{ specialeffect2 EF_HASTEUP; }"; </v>
+        <v xml:space="preserve">连击|1|5|10000|64|侩狼焊林_踌|侩狼焊林_全||{Value}/{MaxValue} %几率 在3秒内触发二次攻击|autobonus "{bonus bDoubleAddRate,100;}",{Value}*10,3000,BF_WEAPON,"{ specialeffect2 EF_HASTEUP; }"; </v>
       </c>
     </row>
   </sheetData>
